--- a/SuppXLS/Scen_base_extra.xlsx
+++ b/SuppXLS/Scen_base_extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E159094-E6E3-4E16-9FAD-E32823D4A0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9698671E-0300-4A1F-A76B-C504C21791B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F5"/>
+  <dimension ref="B3:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -441,16 +441,17 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.6875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6875" customWidth="1"/>
+    <col min="6" max="6" width="1.6875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -461,13 +462,16 @@
         <v>2024</v>
       </c>
       <c r="E4">
+        <v>2015</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -478,9 +482,12 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/SuppXLS/Scen_base_extra.xlsx
+++ b/SuppXLS/Scen_base_extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9698671E-0300-4A1F-A76B-C504C21791B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE4CCA-33D2-401A-A7EB-DDF241A9AE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>attribute</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>UP</t>
+  </si>
+  <si>
+    <t>This was working before…</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G5"/>
+  <dimension ref="B3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -446,12 +449,12 @@
     <col min="7" max="7" width="6.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -459,19 +462,46 @@
         <v>3</v>
       </c>
       <c r="D4">
+        <v>2015</v>
+      </c>
+      <c r="E4">
+        <f>D4+1</f>
+        <v>2016</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:M4" si="0">E4+1</f>
+        <v>2017</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="E4">
-        <v>2015</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -485,9 +515,66 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2024</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/SuppXLS/Scen_base_extra.xlsx
+++ b/SuppXLS/Scen_base_extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE4CCA-33D2-401A-A7EB-DDF241A9AE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C023C7-3467-4CAE-B28F-C1C2B866FDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>attribute</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>SPV*,WON*,WOF*</t>
-  </si>
-  <si>
-    <t>~TFM_INS-TS</t>
   </si>
   <si>
     <t>UP</t>
@@ -433,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:M12"/>
+  <dimension ref="B4:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -449,11 +446,6 @@
     <col min="7" max="7" width="6.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>0</v>
@@ -541,7 +533,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.5">
@@ -575,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
